--- a/www.eia.gov/nuclear/generation/xls/usreact16.xlsx
+++ b/www.eia.gov/nuclear/generation/xls/usreact16.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\PRJ\EIA923\Final Files for Posting to Web\October 2016 Updates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\PRJ\EIA923\Final Files for Posting to Web\November 2016 updates\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,12 +22,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="621" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="491" uniqueCount="150">
   <si>
     <t>U.S. Department of Energy, The Energy Information Administration (EIA)</t>
   </si>
   <si>
-    <t>Monthly Nuclear Utility Generation (MWh) by State and Reactor, 2016 October</t>
+    <t>Monthly Nuclear Utility Generation (MWh) by State and Reactor, 2016 November</t>
   </si>
   <si>
     <t>Sources: EIA-923 and EIA-860 Reports</t>
@@ -313,9 +313,6 @@
   </si>
   <si>
     <t>NE</t>
-  </si>
-  <si>
-    <t>Fort Calhoun</t>
   </si>
   <si>
     <t>Cooper Nuclear Station</t>
@@ -1577,14 +1574,14 @@
       <c r="N7" s="11">
         <v>8</v>
       </c>
-      <c r="O7" s="11" t="s">
-        <v>29</v>
+      <c r="O7" s="11">
+        <v>706120</v>
       </c>
       <c r="P7" s="11" t="s">
         <v>29</v>
       </c>
       <c r="Q7" s="11">
-        <v>6825302</v>
+        <v>7531422</v>
       </c>
       <c r="R7" s="11">
         <v>1152</v>
@@ -1593,7 +1590,7 @@
         <v>1101</v>
       </c>
       <c r="T7" s="12">
-        <v>84.7</v>
+        <v>85.1</v>
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
@@ -1639,14 +1636,14 @@
       <c r="N8" s="11">
         <v>805026</v>
       </c>
-      <c r="O8" s="11" t="s">
-        <v>29</v>
+      <c r="O8" s="11">
+        <v>729130</v>
       </c>
       <c r="P8" s="11" t="s">
         <v>29</v>
       </c>
       <c r="Q8" s="11">
-        <v>8008400</v>
+        <v>8737530</v>
       </c>
       <c r="R8" s="11">
         <v>1152</v>
@@ -1655,7 +1652,7 @@
         <v>1104</v>
       </c>
       <c r="T8" s="12">
-        <v>99.1</v>
+        <v>98.5</v>
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
@@ -1701,14 +1698,14 @@
       <c r="N9" s="11">
         <v>824585</v>
       </c>
-      <c r="O9" s="11" t="s">
-        <v>29</v>
+      <c r="O9" s="11">
+        <v>808849</v>
       </c>
       <c r="P9" s="11" t="s">
         <v>29</v>
       </c>
       <c r="Q9" s="11">
-        <v>6658096</v>
+        <v>7466945</v>
       </c>
       <c r="R9" s="11">
         <v>1190</v>
@@ -1717,7 +1714,7 @@
         <v>1105</v>
       </c>
       <c r="T9" s="12">
-        <v>82.3</v>
+        <v>84.1</v>
       </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
@@ -1763,14 +1760,14 @@
       <c r="N10" s="11">
         <v>-6297</v>
       </c>
-      <c r="O10" s="11" t="s">
-        <v>29</v>
+      <c r="O10" s="11">
+        <v>198306</v>
       </c>
       <c r="P10" s="11" t="s">
         <v>29</v>
       </c>
       <c r="Q10" s="11">
-        <v>5814053</v>
+        <v>6012359</v>
       </c>
       <c r="R10" s="11">
         <v>888</v>
@@ -1779,7 +1776,7 @@
         <v>874</v>
       </c>
       <c r="T10" s="12">
-        <v>90.9</v>
+        <v>85.6</v>
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.25">
@@ -1825,14 +1822,14 @@
       <c r="N11" s="11">
         <v>663616</v>
       </c>
-      <c r="O11" s="11" t="s">
-        <v>29</v>
+      <c r="O11" s="11">
+        <v>643395</v>
       </c>
       <c r="P11" s="11" t="s">
         <v>29</v>
       </c>
       <c r="Q11" s="11">
-        <v>5704782</v>
+        <v>6348177</v>
       </c>
       <c r="R11" s="11">
         <v>888</v>
@@ -1841,7 +1838,7 @@
         <v>883</v>
       </c>
       <c r="T11" s="12">
-        <v>88.3</v>
+        <v>89.4</v>
       </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.25">
@@ -1887,14 +1884,14 @@
       <c r="N12" s="11">
         <v>2286938</v>
       </c>
-      <c r="O12" s="11" t="s">
-        <v>29</v>
+      <c r="O12" s="11">
+        <v>3085800</v>
       </c>
       <c r="P12" s="11" t="s">
         <v>29</v>
       </c>
       <c r="Q12" s="11">
-        <v>33010633</v>
+        <v>36096433</v>
       </c>
       <c r="R12" s="11">
         <v>5270</v>
@@ -1903,7 +1900,7 @@
         <v>5066</v>
       </c>
       <c r="T12" s="12">
-        <v>89</v>
+        <v>88.6</v>
       </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
@@ -1949,14 +1946,14 @@
       <c r="N13" s="11">
         <v>989548</v>
       </c>
-      <c r="O13" s="11" t="s">
-        <v>29</v>
+      <c r="O13" s="11">
+        <v>956922</v>
       </c>
       <c r="P13" s="11" t="s">
         <v>29</v>
       </c>
       <c r="Q13" s="11">
-        <v>8204531</v>
+        <v>9161453</v>
       </c>
       <c r="R13" s="11">
         <v>1403</v>
@@ -1965,7 +1962,7 @@
         <v>1311</v>
       </c>
       <c r="T13" s="12">
-        <v>85.5</v>
+        <v>86.9</v>
       </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
@@ -2011,14 +2008,14 @@
       <c r="N14" s="11">
         <v>991871</v>
       </c>
-      <c r="O14" s="11" t="s">
-        <v>29</v>
+      <c r="O14" s="11">
+        <v>961756</v>
       </c>
       <c r="P14" s="11" t="s">
         <v>29</v>
       </c>
       <c r="Q14" s="11">
-        <v>9756846</v>
+        <v>10718602</v>
       </c>
       <c r="R14" s="11">
         <v>1403</v>
@@ -2027,7 +2024,7 @@
         <v>1314</v>
       </c>
       <c r="T14" s="12">
-        <v>101.4</v>
+        <v>101.5</v>
       </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
@@ -2073,14 +2070,14 @@
       <c r="N15" s="11">
         <v>214602</v>
       </c>
-      <c r="O15" s="11" t="s">
-        <v>29</v>
+      <c r="O15" s="11">
+        <v>741900</v>
       </c>
       <c r="P15" s="11" t="s">
         <v>29</v>
       </c>
       <c r="Q15" s="11">
-        <v>8772478</v>
+        <v>9514378</v>
       </c>
       <c r="R15" s="11">
         <v>1403</v>
@@ -2089,7 +2086,7 @@
         <v>1312</v>
       </c>
       <c r="T15" s="12">
-        <v>91.3</v>
+        <v>90.2</v>
       </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.25">
@@ -2135,14 +2132,14 @@
       <c r="N16" s="11">
         <v>2196021</v>
       </c>
-      <c r="O16" s="11" t="s">
-        <v>29</v>
+      <c r="O16" s="11">
+        <v>2660578</v>
       </c>
       <c r="P16" s="11" t="s">
         <v>29</v>
       </c>
       <c r="Q16" s="11">
-        <v>26733855</v>
+        <v>29394433</v>
       </c>
       <c r="R16" s="11">
         <v>4210</v>
@@ -2151,7 +2148,7 @@
         <v>3937</v>
       </c>
       <c r="T16" s="12">
-        <v>92.8</v>
+        <v>92.9</v>
       </c>
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.25">
@@ -2197,14 +2194,14 @@
       <c r="N17" s="11">
         <v>-1903</v>
       </c>
-      <c r="O17" s="11" t="s">
-        <v>29</v>
+      <c r="O17" s="11">
+        <v>-2473</v>
       </c>
       <c r="P17" s="11" t="s">
         <v>29</v>
       </c>
       <c r="Q17" s="11">
-        <v>5373362</v>
+        <v>5370889</v>
       </c>
       <c r="R17" s="11">
         <v>903</v>
@@ -2213,7 +2210,7 @@
         <v>826</v>
       </c>
       <c r="T17" s="12">
-        <v>88.9</v>
+        <v>80.900000000000006</v>
       </c>
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.25">
@@ -2259,14 +2256,14 @@
       <c r="N18" s="11">
         <v>80180</v>
       </c>
-      <c r="O18" s="11" t="s">
-        <v>29</v>
+      <c r="O18" s="11">
+        <v>711158</v>
       </c>
       <c r="P18" s="11" t="s">
         <v>29</v>
       </c>
       <c r="Q18" s="11">
-        <v>6289475</v>
+        <v>7000633</v>
       </c>
       <c r="R18" s="11">
         <v>943</v>
@@ -2275,7 +2272,7 @@
         <v>983</v>
       </c>
       <c r="T18" s="12">
-        <v>87.4</v>
+        <v>88.6</v>
       </c>
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.25">
@@ -2321,14 +2318,14 @@
       <c r="N19" s="11">
         <v>78277</v>
       </c>
-      <c r="O19" s="11" t="s">
-        <v>29</v>
+      <c r="O19" s="11">
+        <v>708685</v>
       </c>
       <c r="P19" s="11" t="s">
         <v>29</v>
       </c>
       <c r="Q19" s="11">
-        <v>11662837</v>
+        <v>12371522</v>
       </c>
       <c r="R19" s="11">
         <v>1845</v>
@@ -2337,7 +2334,7 @@
         <v>1809</v>
       </c>
       <c r="T19" s="12">
-        <v>88.1</v>
+        <v>85.1</v>
       </c>
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.25">
@@ -2383,14 +2380,14 @@
       <c r="N20" s="11">
         <v>769355</v>
       </c>
-      <c r="O20" s="11" t="s">
-        <v>29</v>
+      <c r="O20" s="11">
+        <v>821526</v>
       </c>
       <c r="P20" s="11" t="s">
         <v>29</v>
       </c>
       <c r="Q20" s="11">
-        <v>8295595</v>
+        <v>9117121</v>
       </c>
       <c r="R20" s="11">
         <v>1159</v>
@@ -2399,7 +2396,7 @@
         <v>1122</v>
       </c>
       <c r="T20" s="12">
-        <v>101</v>
+        <v>101.1</v>
       </c>
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.25">
@@ -2445,14 +2442,14 @@
       <c r="N21" s="11">
         <v>835276</v>
       </c>
-      <c r="O21" s="11" t="s">
-        <v>29</v>
+      <c r="O21" s="11">
+        <v>800520</v>
       </c>
       <c r="P21" s="11" t="s">
         <v>29</v>
       </c>
       <c r="Q21" s="11">
-        <v>7296588</v>
+        <v>8097108</v>
       </c>
       <c r="R21" s="11">
         <v>1164</v>
@@ -2461,7 +2458,7 @@
         <v>1118</v>
       </c>
       <c r="T21" s="12">
-        <v>89.2</v>
+        <v>90.1</v>
       </c>
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.25">
@@ -2507,14 +2504,14 @@
       <c r="N22" s="11">
         <v>1604631</v>
       </c>
-      <c r="O22" s="11" t="s">
-        <v>29</v>
+      <c r="O22" s="11">
+        <v>1622046</v>
       </c>
       <c r="P22" s="11" t="s">
         <v>29</v>
       </c>
       <c r="Q22" s="11">
-        <v>15592183</v>
+        <v>17214229</v>
       </c>
       <c r="R22" s="11">
         <v>2323</v>
@@ -2523,7 +2520,7 @@
         <v>2240</v>
       </c>
       <c r="T22" s="12">
-        <v>95.1</v>
+        <v>95.6</v>
       </c>
     </row>
     <row r="23" spans="1:20" x14ac:dyDescent="0.25">
@@ -2569,14 +2566,14 @@
       <c r="N23" s="11">
         <v>634942</v>
       </c>
-      <c r="O23" s="11" t="s">
-        <v>29</v>
+      <c r="O23" s="11">
+        <v>616123</v>
       </c>
       <c r="P23" s="11" t="s">
         <v>29</v>
       </c>
       <c r="Q23" s="11">
-        <v>6196697</v>
+        <v>6812820</v>
       </c>
       <c r="R23" s="11">
         <v>910</v>
@@ -2631,14 +2628,14 @@
       <c r="N24" s="11">
         <v>906970</v>
       </c>
-      <c r="O24" s="11" t="s">
-        <v>29</v>
+      <c r="O24" s="11">
+        <v>886275</v>
       </c>
       <c r="P24" s="11" t="s">
         <v>29</v>
       </c>
       <c r="Q24" s="11">
-        <v>7322753</v>
+        <v>8209028</v>
       </c>
       <c r="R24" s="11">
         <v>1253</v>
@@ -2647,7 +2644,7 @@
         <v>1220</v>
       </c>
       <c r="T24" s="12">
-        <v>82</v>
+        <v>83.7</v>
       </c>
     </row>
     <row r="25" spans="1:20" x14ac:dyDescent="0.25">
@@ -2693,14 +2690,14 @@
       <c r="N25" s="11">
         <v>1541912</v>
       </c>
-      <c r="O25" s="11" t="s">
-        <v>29</v>
+      <c r="O25" s="11">
+        <v>1502398</v>
       </c>
       <c r="P25" s="11" t="s">
         <v>29</v>
       </c>
       <c r="Q25" s="11">
-        <v>13519450</v>
+        <v>15021848</v>
       </c>
       <c r="R25" s="11">
         <v>2163</v>
@@ -2709,7 +2706,7 @@
         <v>2088</v>
       </c>
       <c r="T25" s="12">
-        <v>88.5</v>
+        <v>89.5</v>
       </c>
     </row>
     <row r="26" spans="1:20" x14ac:dyDescent="0.25">
@@ -2755,14 +2752,14 @@
       <c r="N26" s="11">
         <v>617150</v>
       </c>
-      <c r="O26" s="11" t="s">
-        <v>29</v>
+      <c r="O26" s="11">
+        <v>596334</v>
       </c>
       <c r="P26" s="11" t="s">
         <v>29</v>
       </c>
       <c r="Q26" s="11">
-        <v>5957713</v>
+        <v>6554047</v>
       </c>
       <c r="R26" s="11">
         <v>877</v>
@@ -2771,7 +2768,7 @@
         <v>802</v>
       </c>
       <c r="T26" s="12">
-        <v>101.5</v>
+        <v>101.6</v>
       </c>
     </row>
     <row r="27" spans="1:20" x14ac:dyDescent="0.25">
@@ -2817,14 +2814,14 @@
       <c r="N27" s="11">
         <v>543252</v>
       </c>
-      <c r="O27" s="11" t="s">
-        <v>29</v>
+      <c r="O27" s="11">
+        <v>606983</v>
       </c>
       <c r="P27" s="11" t="s">
         <v>29</v>
       </c>
       <c r="Q27" s="11">
-        <v>5326994</v>
+        <v>5933977</v>
       </c>
       <c r="R27" s="11">
         <v>760</v>
@@ -2833,7 +2830,7 @@
         <v>802</v>
       </c>
       <c r="T27" s="12">
-        <v>90.7</v>
+        <v>92</v>
       </c>
     </row>
     <row r="28" spans="1:20" x14ac:dyDescent="0.25">
@@ -2879,14 +2876,14 @@
       <c r="N28" s="11">
         <v>-1891</v>
       </c>
-      <c r="O28" s="11" t="s">
-        <v>29</v>
+      <c r="O28" s="11">
+        <v>468320</v>
       </c>
       <c r="P28" s="11" t="s">
         <v>29</v>
       </c>
       <c r="Q28" s="11">
-        <v>5702205</v>
+        <v>6170525</v>
       </c>
       <c r="R28" s="11">
         <v>1080</v>
@@ -2895,7 +2892,7 @@
         <v>981</v>
       </c>
       <c r="T28" s="12">
-        <v>79.400000000000006</v>
+        <v>78.2</v>
       </c>
     </row>
     <row r="29" spans="1:20" x14ac:dyDescent="0.25">
@@ -2941,14 +2938,14 @@
       <c r="N29" s="11">
         <v>545429</v>
       </c>
-      <c r="O29" s="11" t="s">
-        <v>29</v>
+      <c r="O29" s="11">
+        <v>730570</v>
       </c>
       <c r="P29" s="11" t="s">
         <v>29</v>
       </c>
       <c r="Q29" s="11">
-        <v>7183759</v>
+        <v>7914329</v>
       </c>
       <c r="R29" s="11">
         <v>1080</v>
@@ -2957,7 +2954,7 @@
         <v>987</v>
       </c>
       <c r="T29" s="12">
-        <v>99.4</v>
+        <v>99.7</v>
       </c>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.25">
@@ -3003,14 +3000,14 @@
       <c r="N30" s="11">
         <v>1703940</v>
       </c>
-      <c r="O30" s="11" t="s">
-        <v>29</v>
+      <c r="O30" s="11">
+        <v>2402207</v>
       </c>
       <c r="P30" s="11" t="s">
         <v>29</v>
       </c>
       <c r="Q30" s="11">
-        <v>24170671</v>
+        <v>26572878</v>
       </c>
       <c r="R30" s="11">
         <v>3797</v>
@@ -3019,7 +3016,7 @@
         <v>3572</v>
       </c>
       <c r="T30" s="12">
-        <v>92.4</v>
+        <v>92.5</v>
       </c>
     </row>
     <row r="31" spans="1:20" x14ac:dyDescent="0.25">
@@ -3065,14 +3062,14 @@
       <c r="N31" s="11">
         <v>871497</v>
       </c>
-      <c r="O31" s="11" t="s">
-        <v>29</v>
+      <c r="O31" s="11">
+        <v>850871</v>
       </c>
       <c r="P31" s="11" t="s">
         <v>29</v>
       </c>
       <c r="Q31" s="11">
-        <v>8543019</v>
+        <v>9393890</v>
       </c>
       <c r="R31" s="11">
         <v>1160</v>
@@ -3081,7 +3078,7 @@
         <v>1150</v>
       </c>
       <c r="T31" s="12">
-        <v>101.5</v>
+        <v>101.6</v>
       </c>
     </row>
     <row r="32" spans="1:20" x14ac:dyDescent="0.25">
@@ -3127,14 +3124,14 @@
       <c r="N32" s="11">
         <v>873077</v>
       </c>
-      <c r="O32" s="11" t="s">
-        <v>29</v>
+      <c r="O32" s="11">
+        <v>855039</v>
       </c>
       <c r="P32" s="11" t="s">
         <v>29</v>
       </c>
       <c r="Q32" s="11">
-        <v>7848292</v>
+        <v>8703331</v>
       </c>
       <c r="R32" s="11">
         <v>1160</v>
@@ -3143,7 +3140,7 @@
         <v>1152</v>
       </c>
       <c r="T32" s="12">
-        <v>93.1</v>
+        <v>94</v>
       </c>
     </row>
     <row r="33" spans="1:20" x14ac:dyDescent="0.25">
@@ -3189,14 +3186,14 @@
       <c r="N33" s="11">
         <v>660776</v>
       </c>
-      <c r="O33" s="11" t="s">
-        <v>29</v>
+      <c r="O33" s="11">
+        <v>634695</v>
       </c>
       <c r="P33" s="11" t="s">
         <v>29</v>
       </c>
       <c r="Q33" s="11">
-        <v>5693038</v>
+        <v>6327733</v>
       </c>
       <c r="R33" s="11">
         <v>857</v>
@@ -3205,7 +3202,7 @@
         <v>876</v>
       </c>
       <c r="T33" s="12">
-        <v>88.8</v>
+        <v>89.8</v>
       </c>
     </row>
     <row r="34" spans="1:20" x14ac:dyDescent="0.25">
@@ -3251,14 +3248,14 @@
       <c r="N34" s="11">
         <v>663145</v>
       </c>
-      <c r="O34" s="11" t="s">
-        <v>29</v>
+      <c r="O34" s="11">
+        <v>642047</v>
       </c>
       <c r="P34" s="11" t="s">
         <v>29</v>
       </c>
       <c r="Q34" s="11">
-        <v>6335024</v>
+        <v>6977071</v>
       </c>
       <c r="R34" s="11">
         <v>865</v>
@@ -3267,7 +3264,7 @@
         <v>883</v>
       </c>
       <c r="T34" s="12">
-        <v>98</v>
+        <v>98.3</v>
       </c>
     </row>
     <row r="35" spans="1:20" x14ac:dyDescent="0.25">
@@ -3313,14 +3310,14 @@
       <c r="N35" s="11">
         <v>3068495</v>
       </c>
-      <c r="O35" s="11" t="s">
-        <v>29</v>
+      <c r="O35" s="11">
+        <v>2982652</v>
       </c>
       <c r="P35" s="11" t="s">
         <v>29</v>
       </c>
       <c r="Q35" s="11">
-        <v>28419373</v>
+        <v>31402025</v>
       </c>
       <c r="R35" s="11">
         <v>4042</v>
@@ -3329,7 +3326,7 @@
         <v>4061</v>
       </c>
       <c r="T35" s="12">
-        <v>95.6</v>
+        <v>96.2</v>
       </c>
     </row>
     <row r="36" spans="1:20" x14ac:dyDescent="0.25">
@@ -3375,14 +3372,14 @@
       <c r="N36" s="11">
         <v>802938</v>
       </c>
-      <c r="O36" s="11" t="s">
-        <v>29</v>
+      <c r="O36" s="11">
+        <v>778735</v>
       </c>
       <c r="P36" s="11" t="s">
         <v>29</v>
       </c>
       <c r="Q36" s="11">
-        <v>7333396</v>
+        <v>8112131</v>
       </c>
       <c r="R36" s="11">
         <v>1138</v>
@@ -3391,7 +3388,7 @@
         <v>1065</v>
       </c>
       <c r="T36" s="12">
-        <v>94.1</v>
+        <v>94.7</v>
       </c>
     </row>
     <row r="37" spans="1:20" x14ac:dyDescent="0.25">
@@ -3437,14 +3434,14 @@
       <c r="N37" s="11">
         <v>681094</v>
       </c>
-      <c r="O37" s="11" t="s">
-        <v>29</v>
+      <c r="O37" s="11">
+        <v>673042</v>
       </c>
       <c r="P37" s="11" t="s">
         <v>29</v>
       </c>
       <c r="Q37" s="11">
-        <v>6700584</v>
+        <v>7373626</v>
       </c>
       <c r="R37" s="11">
         <v>1009</v>
@@ -3453,7 +3450,7 @@
         <v>902</v>
       </c>
       <c r="T37" s="12">
-        <v>101.5</v>
+        <v>101.7</v>
       </c>
     </row>
     <row r="38" spans="1:20" x14ac:dyDescent="0.25">
@@ -3499,14 +3496,14 @@
       <c r="N38" s="11">
         <v>504691</v>
       </c>
-      <c r="O38" s="11" t="s">
-        <v>29</v>
+      <c r="O38" s="11">
+        <v>296472</v>
       </c>
       <c r="P38" s="11" t="s">
         <v>29</v>
       </c>
       <c r="Q38" s="11">
-        <v>6402804</v>
+        <v>6699276</v>
       </c>
       <c r="R38" s="11">
         <v>1009</v>
@@ -3515,7 +3512,7 @@
         <v>895</v>
       </c>
       <c r="T38" s="12">
-        <v>97.7</v>
+        <v>93.1</v>
       </c>
     </row>
     <row r="39" spans="1:20" x14ac:dyDescent="0.25">
@@ -3561,14 +3558,14 @@
       <c r="N39" s="11">
         <v>685390</v>
       </c>
-      <c r="O39" s="11" t="s">
-        <v>29</v>
+      <c r="O39" s="11">
+        <v>674562</v>
       </c>
       <c r="P39" s="11" t="s">
         <v>29</v>
       </c>
       <c r="Q39" s="11">
-        <v>6734331</v>
+        <v>7408893</v>
       </c>
       <c r="R39" s="11">
         <v>1009</v>
@@ -3577,7 +3574,7 @@
         <v>908</v>
       </c>
       <c r="T39" s="12">
-        <v>101.3</v>
+        <v>101.5</v>
       </c>
     </row>
     <row r="40" spans="1:20" x14ac:dyDescent="0.25">
@@ -3623,14 +3620,14 @@
       <c r="N40" s="11">
         <v>687894</v>
       </c>
-      <c r="O40" s="11" t="s">
-        <v>29</v>
+      <c r="O40" s="11">
+        <v>669237</v>
       </c>
       <c r="P40" s="11" t="s">
         <v>29</v>
       </c>
       <c r="Q40" s="11">
-        <v>6188787</v>
+        <v>6858024</v>
       </c>
       <c r="R40" s="11">
         <v>1009</v>
@@ -3639,7 +3636,7 @@
         <v>911</v>
       </c>
       <c r="T40" s="12">
-        <v>92.8</v>
+        <v>93.6</v>
       </c>
     </row>
     <row r="41" spans="1:20" x14ac:dyDescent="0.25">
@@ -3685,14 +3682,14 @@
       <c r="N41" s="11">
         <v>133538</v>
       </c>
-      <c r="O41" s="11" t="s">
-        <v>29</v>
+      <c r="O41" s="11">
+        <v>879392</v>
       </c>
       <c r="P41" s="11" t="s">
         <v>29</v>
       </c>
       <c r="Q41" s="11">
-        <v>7833738</v>
+        <v>8713130</v>
       </c>
       <c r="R41" s="11">
         <v>1225</v>
@@ -3701,7 +3698,7 @@
         <v>1183</v>
       </c>
       <c r="T41" s="12">
-        <v>90.5</v>
+        <v>91.6</v>
       </c>
     </row>
     <row r="42" spans="1:20" x14ac:dyDescent="0.25">
@@ -3747,14 +3744,14 @@
       <c r="N42" s="11">
         <v>877224</v>
       </c>
-      <c r="O42" s="11" t="s">
-        <v>29</v>
+      <c r="O42" s="11">
+        <v>849824</v>
       </c>
       <c r="P42" s="11" t="s">
         <v>29</v>
       </c>
       <c r="Q42" s="11">
-        <v>8497387</v>
+        <v>9347211</v>
       </c>
       <c r="R42" s="11">
         <v>1225</v>
@@ -3763,7 +3760,7 @@
         <v>1154</v>
       </c>
       <c r="T42" s="12">
-        <v>100.6</v>
+        <v>100.7</v>
       </c>
     </row>
     <row r="43" spans="1:20" x14ac:dyDescent="0.25">
@@ -3809,14 +3806,14 @@
       <c r="N43" s="11">
         <v>861366</v>
       </c>
-      <c r="O43" s="11" t="s">
-        <v>29</v>
+      <c r="O43" s="11">
+        <v>854738</v>
       </c>
       <c r="P43" s="11" t="s">
         <v>29</v>
       </c>
       <c r="Q43" s="11">
-        <v>8606363</v>
+        <v>9461101</v>
       </c>
       <c r="R43" s="11">
         <v>1225</v>
@@ -3825,7 +3822,7 @@
         <v>1164</v>
       </c>
       <c r="T43" s="12">
-        <v>101</v>
+        <v>101.1</v>
       </c>
     </row>
     <row r="44" spans="1:20" x14ac:dyDescent="0.25">
@@ -3871,14 +3868,14 @@
       <c r="N44" s="11">
         <v>797131</v>
       </c>
-      <c r="O44" s="11" t="s">
-        <v>29</v>
+      <c r="O44" s="11">
+        <v>843053</v>
       </c>
       <c r="P44" s="11" t="s">
         <v>29</v>
       </c>
       <c r="Q44" s="11">
-        <v>7528800</v>
+        <v>8371853</v>
       </c>
       <c r="R44" s="11">
         <v>1225</v>
@@ -3887,7 +3884,7 @@
         <v>1136</v>
       </c>
       <c r="T44" s="12">
-        <v>90.5</v>
+        <v>91.7</v>
       </c>
     </row>
     <row r="45" spans="1:20" x14ac:dyDescent="0.25">
@@ -3933,14 +3930,14 @@
       <c r="N45" s="11">
         <v>863909</v>
       </c>
-      <c r="O45" s="11" t="s">
-        <v>29</v>
+      <c r="O45" s="11">
+        <v>842457</v>
       </c>
       <c r="P45" s="11" t="s">
         <v>29</v>
       </c>
       <c r="Q45" s="11">
-        <v>7358331</v>
+        <v>8200788</v>
       </c>
       <c r="R45" s="11">
         <v>1170</v>
@@ -3949,7 +3946,7 @@
         <v>1135</v>
       </c>
       <c r="T45" s="12">
-        <v>88.5</v>
+        <v>89.8</v>
       </c>
     </row>
     <row r="46" spans="1:20" x14ac:dyDescent="0.25">
@@ -3995,14 +3992,14 @@
       <c r="N46" s="11">
         <v>863180</v>
       </c>
-      <c r="O46" s="11" t="s">
-        <v>29</v>
+      <c r="O46" s="11">
+        <v>841827</v>
       </c>
       <c r="P46" s="11" t="s">
         <v>29</v>
       </c>
       <c r="Q46" s="11">
-        <v>7992226</v>
+        <v>8834053</v>
       </c>
       <c r="R46" s="11">
         <v>1170</v>
@@ -4011,7 +4008,7 @@
         <v>1136</v>
       </c>
       <c r="T46" s="12">
-        <v>96.1</v>
+        <v>96.7</v>
       </c>
     </row>
     <row r="47" spans="1:20" x14ac:dyDescent="0.25">
@@ -4057,14 +4054,14 @@
       <c r="N47" s="11">
         <v>7758355</v>
       </c>
-      <c r="O47" s="11" t="s">
-        <v>29</v>
+      <c r="O47" s="11">
+        <v>8203339</v>
       </c>
       <c r="P47" s="11" t="s">
         <v>29</v>
       </c>
       <c r="Q47" s="11">
-        <v>81176747</v>
+        <v>89380086</v>
       </c>
       <c r="R47" s="11">
         <v>12415</v>
@@ -4073,7 +4070,7 @@
         <v>11590</v>
       </c>
       <c r="T47" s="12">
-        <v>95.7</v>
+        <v>95.9</v>
       </c>
     </row>
     <row r="48" spans="1:20" x14ac:dyDescent="0.25">
@@ -4119,14 +4116,14 @@
       <c r="N48" s="11">
         <v>20861</v>
       </c>
-      <c r="O48" s="11" t="s">
-        <v>29</v>
+      <c r="O48" s="11">
+        <v>417958</v>
       </c>
       <c r="P48" s="11" t="s">
         <v>29</v>
       </c>
       <c r="Q48" s="11">
-        <v>3825479</v>
+        <v>4243437</v>
       </c>
       <c r="R48" s="11">
         <v>680</v>
@@ -4135,7 +4132,7 @@
         <v>601</v>
       </c>
       <c r="T48" s="12">
-        <v>86.9</v>
+        <v>87.8</v>
       </c>
     </row>
     <row r="49" spans="1:20" x14ac:dyDescent="0.25">
@@ -4181,14 +4178,14 @@
       <c r="N49" s="11">
         <v>20861</v>
       </c>
-      <c r="O49" s="11" t="s">
-        <v>29</v>
+      <c r="O49" s="11">
+        <v>417958</v>
       </c>
       <c r="P49" s="11" t="s">
         <v>29</v>
       </c>
       <c r="Q49" s="11">
-        <v>3825479</v>
+        <v>4243437</v>
       </c>
       <c r="R49" s="11">
         <v>680</v>
@@ -4197,7 +4194,7 @@
         <v>601</v>
       </c>
       <c r="T49" s="12">
-        <v>86.9</v>
+        <v>87.8</v>
       </c>
     </row>
     <row r="50" spans="1:20" x14ac:dyDescent="0.25">
@@ -4243,14 +4240,14 @@
       <c r="N50" s="11">
         <v>-5464</v>
       </c>
-      <c r="O50" s="11" t="s">
-        <v>29</v>
+      <c r="O50" s="11">
+        <v>245456</v>
       </c>
       <c r="P50" s="11" t="s">
         <v>29</v>
       </c>
       <c r="Q50" s="11">
-        <v>7087986</v>
+        <v>7333442</v>
       </c>
       <c r="R50" s="11">
         <v>1268</v>
@@ -4259,7 +4256,7 @@
         <v>1175</v>
       </c>
       <c r="T50" s="12">
-        <v>82.4</v>
+        <v>77.599999999999994</v>
       </c>
     </row>
     <row r="51" spans="1:20" x14ac:dyDescent="0.25">
@@ -4305,14 +4302,14 @@
       <c r="N51" s="11">
         <v>-5464</v>
       </c>
-      <c r="O51" s="11" t="s">
-        <v>29</v>
+      <c r="O51" s="11">
+        <v>245456</v>
       </c>
       <c r="P51" s="11" t="s">
         <v>29</v>
       </c>
       <c r="Q51" s="11">
-        <v>7087986</v>
+        <v>7333442</v>
       </c>
       <c r="R51" s="11">
         <v>1268</v>
@@ -4321,7 +4318,7 @@
         <v>1175</v>
       </c>
       <c r="T51" s="12">
-        <v>82.4</v>
+        <v>77.599999999999994</v>
       </c>
     </row>
     <row r="52" spans="1:20" x14ac:dyDescent="0.25">
@@ -4367,14 +4364,14 @@
       <c r="N52" s="11">
         <v>664881</v>
       </c>
-      <c r="O52" s="11" t="s">
-        <v>29</v>
+      <c r="O52" s="11">
+        <v>832346</v>
       </c>
       <c r="P52" s="11" t="s">
         <v>29</v>
       </c>
       <c r="Q52" s="11">
-        <v>8387014</v>
+        <v>9219360</v>
       </c>
       <c r="R52" s="11">
         <v>1200</v>
@@ -4429,14 +4426,14 @@
       <c r="N53" s="11">
         <v>716159</v>
       </c>
-      <c r="O53" s="11" t="s">
-        <v>29</v>
+      <c r="O53" s="11">
+        <v>700659</v>
       </c>
       <c r="P53" s="11" t="s">
         <v>29</v>
       </c>
       <c r="Q53" s="11">
-        <v>5628003</v>
+        <v>6328662</v>
       </c>
       <c r="R53" s="11">
         <v>1036</v>
@@ -4445,7 +4442,7 @@
         <v>968</v>
       </c>
       <c r="T53" s="12">
-        <v>79.5</v>
+        <v>81.400000000000006</v>
       </c>
     </row>
     <row r="54" spans="1:20" x14ac:dyDescent="0.25">
@@ -4491,14 +4488,14 @@
       <c r="N54" s="11">
         <v>1381040</v>
       </c>
-      <c r="O54" s="11" t="s">
-        <v>29</v>
+      <c r="O54" s="11">
+        <v>1533005</v>
       </c>
       <c r="P54" s="11" t="s">
         <v>29</v>
       </c>
       <c r="Q54" s="11">
-        <v>14015017</v>
+        <v>15548022</v>
       </c>
       <c r="R54" s="11">
         <v>2236</v>
@@ -4507,7 +4504,7 @@
         <v>2128</v>
       </c>
       <c r="T54" s="12">
-        <v>90</v>
+        <v>90.9</v>
       </c>
     </row>
     <row r="55" spans="1:20" x14ac:dyDescent="0.25">
@@ -4553,14 +4550,14 @@
       <c r="N55" s="11">
         <v>661882</v>
       </c>
-      <c r="O55" s="11" t="s">
-        <v>29</v>
+      <c r="O55" s="11">
+        <v>649464</v>
       </c>
       <c r="P55" s="11" t="s">
         <v>29</v>
       </c>
       <c r="Q55" s="11">
-        <v>5863662</v>
+        <v>6513126</v>
       </c>
       <c r="R55" s="11">
         <v>918</v>
@@ -4569,7 +4566,7 @@
         <v>866</v>
       </c>
       <c r="T55" s="12">
-        <v>92.5</v>
+        <v>93.5</v>
       </c>
     </row>
     <row r="56" spans="1:20" x14ac:dyDescent="0.25">
@@ -4615,14 +4612,14 @@
       <c r="N56" s="11">
         <v>642694</v>
       </c>
-      <c r="O56" s="11" t="s">
-        <v>29</v>
+      <c r="O56" s="11">
+        <v>630396</v>
       </c>
       <c r="P56" s="11" t="s">
         <v>29</v>
       </c>
       <c r="Q56" s="11">
-        <v>6321553</v>
+        <v>6951949</v>
       </c>
       <c r="R56" s="11">
         <v>911</v>
@@ -4631,7 +4628,7 @@
         <v>842</v>
       </c>
       <c r="T56" s="12">
-        <v>102.6</v>
+        <v>102.7</v>
       </c>
     </row>
     <row r="57" spans="1:20" x14ac:dyDescent="0.25">
@@ -4677,14 +4674,14 @@
       <c r="N57" s="11">
         <v>1304576</v>
       </c>
-      <c r="O57" s="11" t="s">
-        <v>29</v>
+      <c r="O57" s="11">
+        <v>1279860</v>
       </c>
       <c r="P57" s="11" t="s">
         <v>29</v>
       </c>
       <c r="Q57" s="11">
-        <v>12185215</v>
+        <v>13465075</v>
       </c>
       <c r="R57" s="11">
         <v>1829</v>
@@ -4693,7 +4690,7 @@
         <v>1708</v>
       </c>
       <c r="T57" s="12">
-        <v>97.5</v>
+        <v>98.1</v>
       </c>
     </row>
     <row r="58" spans="1:20" x14ac:dyDescent="0.25">
@@ -4739,14 +4736,14 @@
       <c r="N58" s="11">
         <v>490224</v>
       </c>
-      <c r="O58" s="11" t="s">
-        <v>29</v>
+      <c r="O58" s="11">
+        <v>488314</v>
       </c>
       <c r="P58" s="11" t="s">
         <v>29</v>
       </c>
       <c r="Q58" s="11">
-        <v>4550947</v>
+        <v>5039261</v>
       </c>
       <c r="R58" s="11">
         <v>670</v>
@@ -4755,7 +4752,7 @@
         <v>682</v>
       </c>
       <c r="T58" s="12">
-        <v>91.1</v>
+        <v>91.9</v>
       </c>
     </row>
     <row r="59" spans="1:20" x14ac:dyDescent="0.25">
@@ -4801,14 +4798,14 @@
       <c r="N59" s="11">
         <v>490224</v>
       </c>
-      <c r="O59" s="11" t="s">
-        <v>29</v>
+      <c r="O59" s="11">
+        <v>488314</v>
       </c>
       <c r="P59" s="11" t="s">
         <v>29</v>
       </c>
       <c r="Q59" s="11">
-        <v>4550947</v>
+        <v>5039261</v>
       </c>
       <c r="R59" s="11">
         <v>670</v>
@@ -4817,7 +4814,7 @@
         <v>682</v>
       </c>
       <c r="T59" s="12">
-        <v>91.1</v>
+        <v>91.9</v>
       </c>
     </row>
     <row r="60" spans="1:20" x14ac:dyDescent="0.25">
@@ -4863,14 +4860,14 @@
       <c r="N60" s="11">
         <v>595017</v>
       </c>
-      <c r="O60" s="11" t="s">
-        <v>29</v>
+      <c r="O60" s="11">
+        <v>580097</v>
       </c>
       <c r="P60" s="11" t="s">
         <v>29</v>
       </c>
       <c r="Q60" s="11">
-        <v>5859410</v>
+        <v>6439507</v>
       </c>
       <c r="R60" s="11">
         <v>812</v>
@@ -4925,14 +4922,14 @@
       <c r="N61" s="11">
         <v>843167</v>
       </c>
-      <c r="O61" s="11" t="s">
-        <v>29</v>
+      <c r="O61" s="11">
+        <v>579125</v>
       </c>
       <c r="P61" s="11" t="s">
         <v>29</v>
       </c>
       <c r="Q61" s="11">
-        <v>7717956</v>
+        <v>8297081</v>
       </c>
       <c r="R61" s="11">
         <v>1217</v>
@@ -4941,7 +4938,7 @@
         <v>1124</v>
       </c>
       <c r="T61" s="12">
-        <v>93.8</v>
+        <v>91.8</v>
       </c>
     </row>
     <row r="62" spans="1:20" x14ac:dyDescent="0.25">
@@ -4987,14 +4984,14 @@
       <c r="N62" s="11">
         <v>787146</v>
       </c>
-      <c r="O62" s="11" t="s">
-        <v>29</v>
+      <c r="O62" s="11">
+        <v>771196</v>
       </c>
       <c r="P62" s="11" t="s">
         <v>29</v>
       </c>
       <c r="Q62" s="11">
-        <v>6728819</v>
+        <v>7500015</v>
       </c>
       <c r="R62" s="11">
         <v>1152</v>
@@ -5003,7 +5000,7 @@
         <v>1009</v>
       </c>
       <c r="T62" s="12">
-        <v>91.1</v>
+        <v>92.5</v>
       </c>
     </row>
     <row r="63" spans="1:20" x14ac:dyDescent="0.25">
@@ -5049,8 +5046,8 @@
       <c r="N63" s="11">
         <v>73922</v>
       </c>
-      <c r="O63" s="11" t="s">
-        <v>29</v>
+      <c r="O63" s="11">
+        <v>0</v>
       </c>
       <c r="P63" s="11" t="s">
         <v>29</v>
@@ -5065,7 +5062,7 @@
         <v>1060</v>
       </c>
       <c r="T63" s="12">
-        <v>90.8</v>
+        <v>82.7</v>
       </c>
     </row>
     <row r="64" spans="1:20" x14ac:dyDescent="0.25">
@@ -5111,14 +5108,14 @@
       <c r="N64" s="11">
         <v>2299252</v>
       </c>
-      <c r="O64" s="11" t="s">
-        <v>29</v>
+      <c r="O64" s="11">
+        <v>1930418</v>
       </c>
       <c r="P64" s="11" t="s">
         <v>29</v>
       </c>
       <c r="Q64" s="11">
-        <v>27354203</v>
+        <v>29284621</v>
       </c>
       <c r="R64" s="11">
         <v>4314</v>
@@ -5127,7 +5124,7 @@
         <v>3977</v>
       </c>
       <c r="T64" s="12">
-        <v>94</v>
+        <v>91.6</v>
       </c>
     </row>
     <row r="65" spans="1:20" x14ac:dyDescent="0.25">
@@ -5173,14 +5170,14 @@
       <c r="N65" s="11">
         <v>459478</v>
       </c>
-      <c r="O65" s="11" t="s">
-        <v>29</v>
+      <c r="O65" s="11">
+        <v>478102</v>
       </c>
       <c r="P65" s="11" t="s">
         <v>29</v>
       </c>
       <c r="Q65" s="11">
-        <v>4612136</v>
+        <v>5090238</v>
       </c>
       <c r="R65" s="11">
         <v>685</v>
@@ -5189,7 +5186,7 @@
         <v>607</v>
       </c>
       <c r="T65" s="12">
-        <v>103.8</v>
+        <v>104.3</v>
       </c>
     </row>
     <row r="66" spans="1:20" x14ac:dyDescent="0.25">
@@ -5235,14 +5232,14 @@
       <c r="N66" s="11">
         <v>176993</v>
       </c>
-      <c r="O66" s="11" t="s">
-        <v>29</v>
+      <c r="O66" s="11">
+        <v>113838</v>
       </c>
       <c r="P66" s="11" t="s">
         <v>29</v>
       </c>
       <c r="Q66" s="11">
-        <v>3683515</v>
+        <v>3797353</v>
       </c>
       <c r="R66" s="11">
         <v>593</v>
@@ -5251,7 +5248,7 @@
         <v>521</v>
       </c>
       <c r="T66" s="12">
-        <v>96.6</v>
+        <v>90.7</v>
       </c>
     </row>
     <row r="67" spans="1:20" x14ac:dyDescent="0.25">
@@ -5297,14 +5294,14 @@
       <c r="N67" s="11">
         <v>409699</v>
       </c>
-      <c r="O67" s="11" t="s">
-        <v>29</v>
+      <c r="O67" s="11">
+        <v>400847</v>
       </c>
       <c r="P67" s="11" t="s">
         <v>29</v>
       </c>
       <c r="Q67" s="11">
-        <v>3251036</v>
+        <v>3651883</v>
       </c>
       <c r="R67" s="11">
         <v>593</v>
@@ -5313,7 +5310,7 @@
         <v>519</v>
       </c>
       <c r="T67" s="12">
-        <v>85.6</v>
+        <v>87.5</v>
       </c>
     </row>
     <row r="68" spans="1:20" x14ac:dyDescent="0.25">
@@ -5359,14 +5356,14 @@
       <c r="N68" s="11">
         <v>1046170</v>
       </c>
-      <c r="O68" s="11" t="s">
-        <v>29</v>
+      <c r="O68" s="11">
+        <v>992787</v>
       </c>
       <c r="P68" s="11" t="s">
         <v>29</v>
       </c>
       <c r="Q68" s="11">
-        <v>11546687</v>
+        <v>12539474</v>
       </c>
       <c r="R68" s="11">
         <v>1871</v>
@@ -5375,7 +5372,7 @@
         <v>1647</v>
       </c>
       <c r="T68" s="12">
-        <v>95.8</v>
+        <v>94.7</v>
       </c>
     </row>
     <row r="69" spans="1:20" x14ac:dyDescent="0.25">
@@ -5421,14 +5418,14 @@
       <c r="N69" s="11">
         <v>-13622</v>
       </c>
-      <c r="O69" s="11" t="s">
-        <v>29</v>
+      <c r="O69" s="11">
+        <v>-12913</v>
       </c>
       <c r="P69" s="11" t="s">
         <v>29</v>
       </c>
       <c r="Q69" s="11">
-        <v>5923689</v>
+        <v>5910776</v>
       </c>
       <c r="R69" s="11">
         <v>1440</v>
@@ -5437,7 +5434,7 @@
         <v>1401</v>
       </c>
       <c r="T69" s="12">
-        <v>57.8</v>
+        <v>52.5</v>
       </c>
     </row>
     <row r="70" spans="1:20" x14ac:dyDescent="0.25">
@@ -5483,14 +5480,14 @@
       <c r="N70" s="11">
         <v>-13622</v>
       </c>
-      <c r="O70" s="11" t="s">
-        <v>29</v>
+      <c r="O70" s="11">
+        <v>-12913</v>
       </c>
       <c r="P70" s="11" t="s">
         <v>29</v>
       </c>
       <c r="Q70" s="11">
-        <v>5923689</v>
+        <v>5910776</v>
       </c>
       <c r="R70" s="11">
         <v>1440</v>
@@ -5499,7 +5496,7 @@
         <v>1401</v>
       </c>
       <c r="T70" s="12">
-        <v>57.8</v>
+        <v>52.5</v>
       </c>
     </row>
     <row r="71" spans="1:20" x14ac:dyDescent="0.25">
@@ -5545,14 +5542,14 @@
       <c r="N71" s="11">
         <v>905695</v>
       </c>
-      <c r="O71" s="11" t="s">
-        <v>29</v>
+      <c r="O71" s="11">
+        <v>883658</v>
       </c>
       <c r="P71" s="11" t="s">
         <v>29</v>
       </c>
       <c r="Q71" s="11">
-        <v>7622646</v>
+        <v>8506304</v>
       </c>
       <c r="R71" s="11">
         <v>1236</v>
@@ -5561,7 +5558,7 @@
         <v>1190</v>
       </c>
       <c r="T71" s="12">
-        <v>87.5</v>
+        <v>88.9</v>
       </c>
     </row>
     <row r="72" spans="1:20" x14ac:dyDescent="0.25">
@@ -5607,14 +5604,14 @@
       <c r="N72" s="11">
         <v>905695</v>
       </c>
-      <c r="O72" s="11" t="s">
-        <v>29</v>
+      <c r="O72" s="11">
+        <v>883658</v>
       </c>
       <c r="P72" s="11" t="s">
         <v>29</v>
       </c>
       <c r="Q72" s="11">
-        <v>7622646</v>
+        <v>8506304</v>
       </c>
       <c r="R72" s="11">
         <v>1236</v>
@@ -5623,7 +5620,7 @@
         <v>1190</v>
       </c>
       <c r="T72" s="12">
-        <v>87.5</v>
+        <v>88.9</v>
       </c>
     </row>
     <row r="73" spans="1:20" x14ac:dyDescent="0.25">
@@ -5669,14 +5666,14 @@
       <c r="N73" s="11">
         <v>675819</v>
       </c>
-      <c r="O73" s="11" t="s">
-        <v>29</v>
+      <c r="O73" s="11">
+        <v>648608</v>
       </c>
       <c r="P73" s="11" t="s">
         <v>29</v>
       </c>
       <c r="Q73" s="11">
-        <v>5950406</v>
+        <v>6599014</v>
       </c>
       <c r="R73" s="11">
         <v>1002</v>
@@ -5685,7 +5682,7 @@
         <v>938</v>
       </c>
       <c r="T73" s="12">
-        <v>86.7</v>
+        <v>87.5</v>
       </c>
     </row>
     <row r="74" spans="1:20" x14ac:dyDescent="0.25">
@@ -5731,14 +5728,14 @@
       <c r="N74" s="11">
         <v>668028</v>
       </c>
-      <c r="O74" s="11" t="s">
-        <v>29</v>
+      <c r="O74" s="11">
+        <v>669488</v>
       </c>
       <c r="P74" s="11" t="s">
         <v>29</v>
       </c>
       <c r="Q74" s="11">
-        <v>6735723</v>
+        <v>7405211</v>
       </c>
       <c r="R74" s="11">
         <v>1002</v>
@@ -5747,7 +5744,7 @@
         <v>932</v>
       </c>
       <c r="T74" s="12">
-        <v>98.7</v>
+        <v>98.8</v>
       </c>
     </row>
     <row r="75" spans="1:20" x14ac:dyDescent="0.25">
@@ -5793,14 +5790,14 @@
       <c r="N75" s="11">
         <v>136077</v>
       </c>
-      <c r="O75" s="11" t="s">
-        <v>29</v>
+      <c r="O75" s="11">
+        <v>416053</v>
       </c>
       <c r="P75" s="11" t="s">
         <v>29</v>
       </c>
       <c r="Q75" s="11">
-        <v>6373893</v>
+        <v>6789946</v>
       </c>
       <c r="R75" s="11">
         <v>951</v>
@@ -5809,7 +5806,7 @@
         <v>928</v>
       </c>
       <c r="T75" s="12">
-        <v>93.8</v>
+        <v>91</v>
       </c>
     </row>
     <row r="76" spans="1:20" x14ac:dyDescent="0.25">
@@ -5855,14 +5852,14 @@
       <c r="N76" s="11">
         <v>874330</v>
       </c>
-      <c r="O76" s="11" t="s">
-        <v>29</v>
+      <c r="O76" s="11">
+        <v>855785</v>
       </c>
       <c r="P76" s="11" t="s">
         <v>29</v>
       </c>
       <c r="Q76" s="11">
-        <v>7774018</v>
+        <v>8629803</v>
       </c>
       <c r="R76" s="11">
         <v>1220</v>
@@ -5871,7 +5868,7 @@
         <v>1158</v>
       </c>
       <c r="T76" s="12">
-        <v>91.7</v>
+        <v>92.7</v>
       </c>
     </row>
     <row r="77" spans="1:20" x14ac:dyDescent="0.25">
@@ -5917,14 +5914,14 @@
       <c r="N77" s="11">
         <v>876480</v>
       </c>
-      <c r="O77" s="11" t="s">
-        <v>29</v>
+      <c r="O77" s="11">
+        <v>857439</v>
       </c>
       <c r="P77" s="11" t="s">
         <v>29</v>
       </c>
       <c r="Q77" s="11">
-        <v>8623503</v>
+        <v>9480942</v>
       </c>
       <c r="R77" s="11">
         <v>1220</v>
@@ -5933,7 +5930,7 @@
         <v>1158</v>
       </c>
       <c r="T77" s="12">
-        <v>101.8</v>
+        <v>101.9</v>
       </c>
     </row>
     <row r="78" spans="1:20" x14ac:dyDescent="0.25">
@@ -5979,14 +5976,14 @@
       <c r="N78" s="11">
         <v>3230734</v>
       </c>
-      <c r="O78" s="11" t="s">
-        <v>29</v>
+      <c r="O78" s="11">
+        <v>3447373</v>
       </c>
       <c r="P78" s="11" t="s">
         <v>29</v>
       </c>
       <c r="Q78" s="11">
-        <v>35457543</v>
+        <v>38904916</v>
       </c>
       <c r="R78" s="11">
         <v>5395</v>
@@ -5995,7 +5992,7 @@
         <v>5114</v>
       </c>
       <c r="T78" s="12">
-        <v>94.7</v>
+        <v>94.6</v>
       </c>
     </row>
     <row r="79" spans="1:20" x14ac:dyDescent="0.25">
@@ -6006,7 +6003,7 @@
         <v>2289</v>
       </c>
       <c r="C79" s="9" t="s">
-        <v>97</v>
+        <v>3</v>
       </c>
       <c r="D79" s="9">
         <v>1</v>
@@ -6068,7 +6065,7 @@
         <v>8036</v>
       </c>
       <c r="C80" s="9" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D80" s="9">
         <v>1</v>
@@ -6103,14 +6100,14 @@
       <c r="N80" s="11">
         <v>0</v>
       </c>
-      <c r="O80" s="11" t="s">
-        <v>29</v>
+      <c r="O80" s="11">
+        <v>396322</v>
       </c>
       <c r="P80" s="11" t="s">
         <v>29</v>
       </c>
       <c r="Q80" s="11">
-        <v>4927606</v>
+        <v>5323928</v>
       </c>
       <c r="R80" s="11">
         <v>801</v>
@@ -6119,12 +6116,12 @@
         <v>764</v>
       </c>
       <c r="T80" s="12">
-        <v>88.1</v>
+        <v>86.7</v>
       </c>
     </row>
     <row r="81" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A81" s="9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B81" s="10" t="s">
         <v>29</v>
@@ -6165,14 +6162,14 @@
       <c r="N81" s="11">
         <v>242133</v>
       </c>
-      <c r="O81" s="11" t="s">
-        <v>29</v>
+      <c r="O81" s="11">
+        <v>396322</v>
       </c>
       <c r="P81" s="11" t="s">
         <v>29</v>
       </c>
       <c r="Q81" s="11">
-        <v>8352841</v>
+        <v>8749163</v>
       </c>
       <c r="R81" s="11">
         <v>801</v>
@@ -6181,18 +6178,18 @@
         <v>764</v>
       </c>
       <c r="T81" s="12">
-        <v>149.4</v>
+        <v>142.4</v>
       </c>
     </row>
     <row r="82" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A82" s="9" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B82" s="10">
         <v>6115</v>
       </c>
       <c r="C82" s="9" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D82" s="9">
         <v>1</v>
@@ -6227,14 +6224,14 @@
       <c r="N82" s="11">
         <v>928360</v>
       </c>
-      <c r="O82" s="11" t="s">
-        <v>29</v>
+      <c r="O82" s="11">
+        <v>900912</v>
       </c>
       <c r="P82" s="11" t="s">
         <v>29</v>
       </c>
       <c r="Q82" s="11">
-        <v>8930422</v>
+        <v>9831334</v>
       </c>
       <c r="R82" s="11">
         <v>1242</v>
@@ -6243,12 +6240,12 @@
         <v>1248</v>
       </c>
       <c r="T82" s="12">
-        <v>97.8</v>
+        <v>98</v>
       </c>
     </row>
     <row r="83" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A83" s="9" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B83" s="10" t="s">
         <v>29</v>
@@ -6289,14 +6286,14 @@
       <c r="N83" s="11">
         <v>928360</v>
       </c>
-      <c r="O83" s="11" t="s">
-        <v>29</v>
+      <c r="O83" s="11">
+        <v>900912</v>
       </c>
       <c r="P83" s="11" t="s">
         <v>29</v>
       </c>
       <c r="Q83" s="11">
-        <v>8930422</v>
+        <v>9831334</v>
       </c>
       <c r="R83" s="11">
         <v>1242</v>
@@ -6305,18 +6302,18 @@
         <v>1248</v>
       </c>
       <c r="T83" s="12">
-        <v>97.8</v>
+        <v>98</v>
       </c>
     </row>
     <row r="84" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A84" s="9" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B84" s="10">
         <v>2388</v>
       </c>
       <c r="C84" s="9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D84" s="9">
         <v>1</v>
@@ -6351,14 +6348,14 @@
       <c r="N84" s="11">
         <v>274148</v>
       </c>
-      <c r="O84" s="11" t="s">
-        <v>29</v>
+      <c r="O84" s="11">
+        <v>377142</v>
       </c>
       <c r="P84" s="11" t="s">
         <v>29</v>
       </c>
       <c r="Q84" s="11">
-        <v>3861098</v>
+        <v>4238240</v>
       </c>
       <c r="R84" s="11">
         <v>550</v>
@@ -6367,18 +6364,18 @@
         <v>608</v>
       </c>
       <c r="T84" s="12">
-        <v>86.8</v>
+        <v>86.7</v>
       </c>
     </row>
     <row r="85" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A85" s="9" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B85" s="10">
         <v>2410</v>
       </c>
       <c r="C85" s="9" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D85" s="9">
         <v>1</v>
@@ -6413,14 +6410,14 @@
       <c r="N85" s="11">
         <v>875645</v>
       </c>
-      <c r="O85" s="11" t="s">
-        <v>29</v>
+      <c r="O85" s="11">
+        <v>822864</v>
       </c>
       <c r="P85" s="11" t="s">
         <v>29</v>
       </c>
       <c r="Q85" s="11">
-        <v>5269227</v>
+        <v>6092091</v>
       </c>
       <c r="R85" s="11">
         <v>1170</v>
@@ -6429,18 +6426,18 @@
         <v>1170</v>
       </c>
       <c r="T85" s="12">
-        <v>61.5</v>
+        <v>64.8</v>
       </c>
     </row>
     <row r="86" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A86" s="9" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B86" s="10">
         <v>2410</v>
       </c>
       <c r="C86" s="9" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D86" s="9">
         <v>2</v>
@@ -6475,14 +6472,14 @@
       <c r="N86" s="11">
         <v>865847</v>
       </c>
-      <c r="O86" s="11" t="s">
-        <v>29</v>
+      <c r="O86" s="11">
+        <v>843580</v>
       </c>
       <c r="P86" s="11" t="s">
         <v>29</v>
       </c>
       <c r="Q86" s="11">
-        <v>6983645</v>
+        <v>7827225</v>
       </c>
       <c r="R86" s="11">
         <v>1170</v>
@@ -6491,18 +6488,18 @@
         <v>1158</v>
       </c>
       <c r="T86" s="12">
-        <v>82.4</v>
+        <v>84.1</v>
       </c>
     </row>
     <row r="87" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A87" s="9" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B87" s="10">
         <v>6118</v>
       </c>
       <c r="C87" s="9" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D87" s="9">
         <v>1</v>
@@ -6537,14 +6534,14 @@
       <c r="N87" s="11">
         <v>368909</v>
       </c>
-      <c r="O87" s="11" t="s">
-        <v>29</v>
+      <c r="O87" s="11">
+        <v>485027</v>
       </c>
       <c r="P87" s="11" t="s">
         <v>29</v>
       </c>
       <c r="Q87" s="11">
-        <v>8196030</v>
+        <v>8681057</v>
       </c>
       <c r="R87" s="11">
         <v>1291</v>
@@ -6553,12 +6550,12 @@
         <v>1172</v>
       </c>
       <c r="T87" s="12">
-        <v>95.5</v>
+        <v>92.1</v>
       </c>
     </row>
     <row r="88" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A88" s="9" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B88" s="10" t="s">
         <v>29</v>
@@ -6599,14 +6596,14 @@
       <c r="N88" s="11">
         <v>2384549</v>
       </c>
-      <c r="O88" s="11" t="s">
-        <v>29</v>
+      <c r="O88" s="11">
+        <v>2528613</v>
       </c>
       <c r="P88" s="11" t="s">
         <v>29</v>
       </c>
       <c r="Q88" s="11">
-        <v>24310000</v>
+        <v>26838613</v>
       </c>
       <c r="R88" s="11">
         <v>4181</v>
@@ -6615,18 +6612,18 @@
         <v>4108</v>
       </c>
       <c r="T88" s="12">
-        <v>80.8</v>
+        <v>81.3</v>
       </c>
     </row>
     <row r="89" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A89" s="9" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B89" s="10">
         <v>2497</v>
       </c>
       <c r="C89" s="9" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D89" s="9">
         <v>2</v>
@@ -6661,14 +6658,14 @@
       <c r="N89" s="11">
         <v>756873</v>
       </c>
-      <c r="O89" s="11" t="s">
-        <v>29</v>
+      <c r="O89" s="11">
+        <v>735338</v>
       </c>
       <c r="P89" s="11" t="s">
         <v>29</v>
       </c>
       <c r="Q89" s="11">
-        <v>4553626</v>
+        <v>5288964</v>
       </c>
       <c r="R89" s="11">
         <v>1299</v>
@@ -6677,18 +6674,18 @@
         <v>1020</v>
       </c>
       <c r="T89" s="12">
-        <v>61</v>
+        <v>64.5</v>
       </c>
     </row>
     <row r="90" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A90" s="9" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B90" s="10">
         <v>2589</v>
       </c>
       <c r="C90" s="9" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D90" s="9">
         <v>1</v>
@@ -6723,14 +6720,14 @@
       <c r="N90" s="11">
         <v>458398</v>
       </c>
-      <c r="O90" s="11" t="s">
-        <v>29</v>
+      <c r="O90" s="11">
+        <v>447408</v>
       </c>
       <c r="P90" s="11" t="s">
         <v>29</v>
       </c>
       <c r="Q90" s="11">
-        <v>4521234</v>
+        <v>4968642</v>
       </c>
       <c r="R90" s="11">
         <v>642</v>
@@ -6744,13 +6741,13 @@
     </row>
     <row r="91" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A91" s="9" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B91" s="10">
         <v>2589</v>
       </c>
       <c r="C91" s="9" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D91" s="9">
         <v>2</v>
@@ -6785,14 +6782,14 @@
       <c r="N91" s="11">
         <v>952527</v>
       </c>
-      <c r="O91" s="11" t="s">
-        <v>29</v>
+      <c r="O91" s="11">
+        <v>705016</v>
       </c>
       <c r="P91" s="11" t="s">
         <v>29</v>
       </c>
       <c r="Q91" s="11">
-        <v>8587639</v>
+        <v>9292655</v>
       </c>
       <c r="R91" s="11">
         <v>1259</v>
@@ -6801,18 +6798,18 @@
         <v>1287</v>
       </c>
       <c r="T91" s="12">
-        <v>91.2</v>
+        <v>89.8</v>
       </c>
     </row>
     <row r="92" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A92" s="9" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B92" s="10">
         <v>6110</v>
       </c>
       <c r="C92" s="9" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D92" s="9">
         <v>1</v>
@@ -6847,14 +6844,14 @@
       <c r="N92" s="11">
         <v>459076</v>
       </c>
-      <c r="O92" s="11" t="s">
-        <v>29</v>
+      <c r="O92" s="11">
+        <v>387335</v>
       </c>
       <c r="P92" s="11" t="s">
         <v>29</v>
       </c>
       <c r="Q92" s="11">
-        <v>5135877</v>
+        <v>5523212</v>
       </c>
       <c r="R92" s="11">
         <v>882</v>
@@ -6863,18 +6860,18 @@
         <v>837</v>
       </c>
       <c r="T92" s="12">
-        <v>83.8</v>
+        <v>82.1</v>
       </c>
     </row>
     <row r="93" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A93" s="9" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B93" s="10">
         <v>6122</v>
       </c>
       <c r="C93" s="9" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D93" s="9">
         <v>1</v>
@@ -6909,14 +6906,14 @@
       <c r="N93" s="11">
         <v>427365</v>
       </c>
-      <c r="O93" s="11" t="s">
-        <v>29</v>
+      <c r="O93" s="11">
+        <v>417058</v>
       </c>
       <c r="P93" s="11" t="s">
         <v>29</v>
       </c>
       <c r="Q93" s="11">
-        <v>4222226</v>
+        <v>4639284</v>
       </c>
       <c r="R93" s="11">
         <v>614</v>
@@ -6930,13 +6927,13 @@
     </row>
     <row r="94" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A94" s="9" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B94" s="10">
         <v>8907</v>
       </c>
       <c r="C94" s="9" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D94" s="9">
         <v>3</v>
@@ -6971,14 +6968,14 @@
       <c r="N94" s="11">
         <v>773311</v>
       </c>
-      <c r="O94" s="11" t="s">
-        <v>29</v>
+      <c r="O94" s="11">
+        <v>747811</v>
       </c>
       <c r="P94" s="11" t="s">
         <v>29</v>
       </c>
       <c r="Q94" s="11">
-        <v>7556252</v>
+        <v>8304063</v>
       </c>
       <c r="R94" s="11">
         <v>1012</v>
@@ -6992,7 +6989,7 @@
     </row>
     <row r="95" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A95" s="9" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B95" s="10" t="s">
         <v>29</v>
@@ -7033,14 +7030,14 @@
       <c r="N95" s="11">
         <v>3827550</v>
       </c>
-      <c r="O95" s="11" t="s">
-        <v>29</v>
+      <c r="O95" s="11">
+        <v>3439966</v>
       </c>
       <c r="P95" s="11" t="s">
         <v>29</v>
       </c>
       <c r="Q95" s="11">
-        <v>34576854</v>
+        <v>38016820</v>
       </c>
       <c r="R95" s="11">
         <v>5708</v>
@@ -7049,18 +7046,18 @@
         <v>5398</v>
       </c>
       <c r="T95" s="12">
-        <v>87.5</v>
+        <v>87.6</v>
       </c>
     </row>
     <row r="96" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A96" s="9" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B96" s="10">
         <v>6020</v>
       </c>
       <c r="C96" s="9" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D96" s="9">
         <v>1</v>
@@ -7095,14 +7092,14 @@
       <c r="N96" s="11">
         <v>935958</v>
       </c>
-      <c r="O96" s="11" t="s">
-        <v>29</v>
+      <c r="O96" s="11">
+        <v>922911</v>
       </c>
       <c r="P96" s="11" t="s">
         <v>29</v>
       </c>
       <c r="Q96" s="11">
-        <v>8554313</v>
+        <v>9477224</v>
       </c>
       <c r="R96" s="11">
         <v>1312</v>
@@ -7111,18 +7108,18 @@
         <v>1240</v>
       </c>
       <c r="T96" s="12">
-        <v>94.2</v>
+        <v>95.1</v>
       </c>
     </row>
     <row r="97" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A97" s="9" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B97" s="10">
         <v>6149</v>
       </c>
       <c r="C97" s="9" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D97" s="9">
         <v>1</v>
@@ -7157,14 +7154,14 @@
       <c r="N97" s="11">
         <v>659647</v>
       </c>
-      <c r="O97" s="11" t="s">
-        <v>29</v>
+      <c r="O97" s="11">
+        <v>658798</v>
       </c>
       <c r="P97" s="11" t="s">
         <v>29</v>
       </c>
       <c r="Q97" s="11">
-        <v>5057253</v>
+        <v>5716051</v>
       </c>
       <c r="R97" s="11">
         <v>925</v>
@@ -7173,12 +7170,12 @@
         <v>894</v>
       </c>
       <c r="T97" s="12">
-        <v>77.3</v>
+        <v>79.5</v>
       </c>
     </row>
     <row r="98" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A98" s="9" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B98" s="10" t="s">
         <v>29</v>
@@ -7219,14 +7216,14 @@
       <c r="N98" s="11">
         <v>1595605</v>
       </c>
-      <c r="O98" s="11" t="s">
-        <v>29</v>
+      <c r="O98" s="11">
+        <v>1581709</v>
       </c>
       <c r="P98" s="11" t="s">
         <v>29</v>
       </c>
       <c r="Q98" s="11">
-        <v>13611566</v>
+        <v>15193275</v>
       </c>
       <c r="R98" s="11">
         <v>2237</v>
@@ -7235,18 +7232,18 @@
         <v>2134</v>
       </c>
       <c r="T98" s="12">
-        <v>87.1</v>
+        <v>88.6</v>
       </c>
     </row>
     <row r="99" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A99" s="9" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B99" s="10">
         <v>3166</v>
       </c>
       <c r="C99" s="9" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D99" s="9">
         <v>2</v>
@@ -7281,14 +7278,14 @@
       <c r="N99" s="11">
         <v>627339</v>
       </c>
-      <c r="O99" s="11" t="s">
-        <v>29</v>
+      <c r="O99" s="11">
+        <v>590051</v>
       </c>
       <c r="P99" s="11" t="s">
         <v>29</v>
       </c>
       <c r="Q99" s="11">
-        <v>8897011</v>
+        <v>9487062</v>
       </c>
       <c r="R99" s="11">
         <v>1245</v>
@@ -7297,18 +7294,18 @@
         <v>1224</v>
       </c>
       <c r="T99" s="12">
-        <v>99.3</v>
+        <v>96.4</v>
       </c>
     </row>
     <row r="100" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A100" s="9" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B100" s="10">
         <v>3166</v>
       </c>
       <c r="C100" s="9" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D100" s="9">
         <v>3</v>
@@ -7343,14 +7340,14 @@
       <c r="N100" s="11">
         <v>949810</v>
       </c>
-      <c r="O100" s="11" t="s">
-        <v>29</v>
+      <c r="O100" s="11">
+        <v>956827</v>
       </c>
       <c r="P100" s="11" t="s">
         <v>29</v>
       </c>
       <c r="Q100" s="11">
-        <v>9454538</v>
+        <v>10411365</v>
       </c>
       <c r="R100" s="11">
         <v>1377</v>
@@ -7359,18 +7356,18 @@
         <v>1123</v>
       </c>
       <c r="T100" s="12">
-        <v>115</v>
+        <v>115.3</v>
       </c>
     </row>
     <row r="101" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A101" s="9" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B101" s="10">
         <v>6040</v>
       </c>
       <c r="C101" s="9" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D101" s="9">
         <v>1</v>
@@ -7405,14 +7402,14 @@
       <c r="N101" s="11">
         <v>118182</v>
       </c>
-      <c r="O101" s="11" t="s">
-        <v>29</v>
+      <c r="O101" s="11">
+        <v>679057</v>
       </c>
       <c r="P101" s="11" t="s">
         <v>29</v>
       </c>
       <c r="Q101" s="11">
-        <v>5969518</v>
+        <v>6648575</v>
       </c>
       <c r="R101" s="11">
         <v>923</v>
@@ -7421,18 +7418,18 @@
         <v>907</v>
       </c>
       <c r="T101" s="12">
-        <v>89.9</v>
+        <v>91.2</v>
       </c>
     </row>
     <row r="102" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A102" s="9" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B102" s="10">
         <v>6040</v>
       </c>
       <c r="C102" s="9" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D102" s="9">
         <v>2</v>
@@ -7467,14 +7464,14 @@
       <c r="N102" s="11">
         <v>687685</v>
       </c>
-      <c r="O102" s="11" t="s">
-        <v>29</v>
+      <c r="O102" s="11">
+        <v>670720</v>
       </c>
       <c r="P102" s="11" t="s">
         <v>29</v>
       </c>
       <c r="Q102" s="11">
-        <v>6503576</v>
+        <v>7174296</v>
       </c>
       <c r="R102" s="11">
         <v>923</v>
@@ -7483,18 +7480,18 @@
         <v>901</v>
       </c>
       <c r="T102" s="12">
-        <v>98.6</v>
+        <v>99</v>
       </c>
     </row>
     <row r="103" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A103" s="9" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B103" s="10">
         <v>6103</v>
       </c>
       <c r="C103" s="9" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D103" s="9">
         <v>1</v>
@@ -7529,14 +7526,14 @@
       <c r="N103" s="11">
         <v>943520</v>
       </c>
-      <c r="O103" s="11" t="s">
-        <v>29</v>
+      <c r="O103" s="11">
+        <v>909278</v>
       </c>
       <c r="P103" s="11" t="s">
         <v>29</v>
       </c>
       <c r="Q103" s="11">
-        <v>6854143</v>
+        <v>7763421</v>
       </c>
       <c r="R103" s="11">
         <v>1298</v>
@@ -7545,18 +7542,18 @@
         <v>1260</v>
       </c>
       <c r="T103" s="12">
-        <v>74.3</v>
+        <v>76.599999999999994</v>
       </c>
     </row>
     <row r="104" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A104" s="9" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B104" s="10">
         <v>6103</v>
       </c>
       <c r="C104" s="9" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D104" s="9">
         <v>2</v>
@@ -7591,14 +7588,14 @@
       <c r="N104" s="11">
         <v>699712</v>
       </c>
-      <c r="O104" s="11" t="s">
-        <v>29</v>
+      <c r="O104" s="11">
+        <v>898023</v>
       </c>
       <c r="P104" s="11" t="s">
         <v>29</v>
       </c>
       <c r="Q104" s="11">
-        <v>8781277</v>
+        <v>9679300</v>
       </c>
       <c r="R104" s="11">
         <v>1298</v>
@@ -7607,18 +7604,18 @@
         <v>1260</v>
       </c>
       <c r="T104" s="12">
-        <v>95.2</v>
+        <v>95.5</v>
       </c>
     </row>
     <row r="105" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A105" s="9" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B105" s="10">
         <v>6105</v>
       </c>
       <c r="C105" s="9" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D105" s="9">
         <v>1</v>
@@ -7653,14 +7650,14 @@
       <c r="N105" s="11">
         <v>862938</v>
       </c>
-      <c r="O105" s="11" t="s">
-        <v>29</v>
+      <c r="O105" s="11">
+        <v>843463</v>
       </c>
       <c r="P105" s="11" t="s">
         <v>29</v>
       </c>
       <c r="Q105" s="11">
-        <v>7551604</v>
+        <v>8395067</v>
       </c>
       <c r="R105" s="11">
         <v>1139</v>
@@ -7669,18 +7666,18 @@
         <v>1120</v>
       </c>
       <c r="T105" s="12">
-        <v>92.1</v>
+        <v>93.3</v>
       </c>
     </row>
     <row r="106" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A106" s="9" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B106" s="10">
         <v>6105</v>
       </c>
       <c r="C106" s="9" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D106" s="9">
         <v>2</v>
@@ -7715,14 +7712,14 @@
       <c r="N106" s="11">
         <v>864573</v>
       </c>
-      <c r="O106" s="11" t="s">
-        <v>29</v>
+      <c r="O106" s="11">
+        <v>846487</v>
       </c>
       <c r="P106" s="11" t="s">
         <v>29</v>
       </c>
       <c r="Q106" s="11">
-        <v>8403176</v>
+        <v>9249663</v>
       </c>
       <c r="R106" s="11">
         <v>1139</v>
@@ -7731,18 +7728,18 @@
         <v>1122</v>
       </c>
       <c r="T106" s="12">
-        <v>102.3</v>
+        <v>102.5</v>
       </c>
     </row>
     <row r="107" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A107" s="9" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B107" s="10">
         <v>8011</v>
       </c>
       <c r="C107" s="9" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D107" s="9">
         <v>1</v>
@@ -7777,14 +7774,14 @@
       <c r="N107" s="11">
         <v>622807</v>
       </c>
-      <c r="O107" s="11" t="s">
-        <v>29</v>
+      <c r="O107" s="11">
+        <v>607486</v>
       </c>
       <c r="P107" s="11" t="s">
         <v>29</v>
       </c>
       <c r="Q107" s="11">
-        <v>6087719</v>
+        <v>6695205</v>
       </c>
       <c r="R107" s="11">
         <v>981</v>
@@ -7793,12 +7790,12 @@
         <v>803</v>
       </c>
       <c r="T107" s="12">
-        <v>103.6</v>
+        <v>103.7</v>
       </c>
     </row>
     <row r="108" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A108" s="9" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B108" s="10" t="s">
         <v>29</v>
@@ -7839,14 +7836,14 @@
       <c r="N108" s="11">
         <v>6376566</v>
       </c>
-      <c r="O108" s="11" t="s">
-        <v>29</v>
+      <c r="O108" s="11">
+        <v>7001392</v>
       </c>
       <c r="P108" s="11" t="s">
         <v>29</v>
       </c>
       <c r="Q108" s="11">
-        <v>68502562</v>
+        <v>75503954</v>
       </c>
       <c r="R108" s="11">
         <v>10322</v>
@@ -7855,18 +7852,18 @@
         <v>9719</v>
       </c>
       <c r="T108" s="12">
-        <v>96.3</v>
+        <v>96.6</v>
       </c>
     </row>
     <row r="109" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A109" s="9" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B109" s="10">
         <v>3251</v>
       </c>
       <c r="C109" s="9" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D109" s="9">
         <v>2</v>
@@ -7901,14 +7898,14 @@
       <c r="N109" s="11">
         <v>496234</v>
       </c>
-      <c r="O109" s="11" t="s">
-        <v>29</v>
+      <c r="O109" s="11">
+        <v>549817</v>
       </c>
       <c r="P109" s="11" t="s">
         <v>29</v>
       </c>
       <c r="Q109" s="11">
-        <v>5291994</v>
+        <v>5841811</v>
       </c>
       <c r="R109" s="11">
         <v>769</v>
@@ -7917,18 +7914,18 @@
         <v>741</v>
       </c>
       <c r="T109" s="12">
-        <v>97.6</v>
+        <v>98.1</v>
       </c>
     </row>
     <row r="110" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A110" s="9" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B110" s="10">
         <v>3265</v>
       </c>
       <c r="C110" s="9" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D110" s="9">
         <v>1</v>
@@ -7963,14 +7960,14 @@
       <c r="N110" s="11">
         <v>621751</v>
       </c>
-      <c r="O110" s="11" t="s">
-        <v>29</v>
+      <c r="O110" s="11">
+        <v>139894</v>
       </c>
       <c r="P110" s="11" t="s">
         <v>29</v>
       </c>
       <c r="Q110" s="11">
-        <v>5693319</v>
+        <v>5833213</v>
       </c>
       <c r="R110" s="11">
         <v>887</v>
@@ -7979,18 +7976,18 @@
         <v>847</v>
       </c>
       <c r="T110" s="12">
-        <v>91.8</v>
+        <v>85.7</v>
       </c>
     </row>
     <row r="111" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A111" s="9" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B111" s="10">
         <v>3265</v>
       </c>
       <c r="C111" s="9" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D111" s="9">
         <v>2</v>
@@ -8025,14 +8022,14 @@
       <c r="N111" s="11">
         <v>636941</v>
       </c>
-      <c r="O111" s="11" t="s">
-        <v>29</v>
+      <c r="O111" s="11">
+        <v>622847</v>
       </c>
       <c r="P111" s="11" t="s">
         <v>29</v>
       </c>
       <c r="Q111" s="11">
-        <v>6338617</v>
+        <v>6961464</v>
       </c>
       <c r="R111" s="11">
         <v>887</v>
@@ -8046,13 +8043,13 @@
     </row>
     <row r="112" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A112" s="9" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B112" s="10">
         <v>3265</v>
       </c>
       <c r="C112" s="9" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D112" s="9">
         <v>3</v>
@@ -8087,14 +8084,14 @@
       <c r="N112" s="11">
         <v>641037</v>
       </c>
-      <c r="O112" s="11" t="s">
-        <v>29</v>
+      <c r="O112" s="11">
+        <v>628026</v>
       </c>
       <c r="P112" s="11" t="s">
         <v>29</v>
       </c>
       <c r="Q112" s="11">
-        <v>5814735</v>
+        <v>6442761</v>
       </c>
       <c r="R112" s="11">
         <v>893</v>
@@ -8103,18 +8100,18 @@
         <v>859</v>
       </c>
       <c r="T112" s="12">
-        <v>92.5</v>
+        <v>93.3</v>
       </c>
     </row>
     <row r="113" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A113" s="9" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B113" s="10">
         <v>6036</v>
       </c>
       <c r="C113" s="9" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D113" s="9">
         <v>1</v>
@@ -8149,14 +8146,14 @@
       <c r="N113" s="11">
         <v>867983</v>
       </c>
-      <c r="O113" s="11" t="s">
-        <v>29</v>
+      <c r="O113" s="11">
+        <v>851819</v>
       </c>
       <c r="P113" s="11" t="s">
         <v>29</v>
       </c>
       <c r="Q113" s="11">
-        <v>8509417</v>
+        <v>9361236</v>
       </c>
       <c r="R113" s="11">
         <v>1205</v>
@@ -8165,18 +8162,18 @@
         <v>1140</v>
       </c>
       <c r="T113" s="12">
-        <v>102</v>
+        <v>102.1</v>
       </c>
     </row>
     <row r="114" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A114" s="9" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B114" s="10">
         <v>6036</v>
       </c>
       <c r="C114" s="9" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D114" s="9">
         <v>2</v>
@@ -8211,14 +8208,14 @@
       <c r="N114" s="11">
         <v>612098</v>
       </c>
-      <c r="O114" s="11" t="s">
-        <v>29</v>
+      <c r="O114" s="11">
+        <v>843909</v>
       </c>
       <c r="P114" s="11" t="s">
         <v>29</v>
       </c>
       <c r="Q114" s="11">
-        <v>7598065</v>
+        <v>8441974</v>
       </c>
       <c r="R114" s="11">
         <v>1205</v>
@@ -8227,18 +8224,18 @@
         <v>1150</v>
       </c>
       <c r="T114" s="12">
-        <v>90.3</v>
+        <v>91.3</v>
       </c>
     </row>
     <row r="115" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A115" s="9" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B115" s="10">
         <v>6127</v>
       </c>
       <c r="C115" s="9" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D115" s="9">
         <v>1</v>
@@ -8273,14 +8270,14 @@
       <c r="N115" s="11">
         <v>735016</v>
       </c>
-      <c r="O115" s="11" t="s">
-        <v>29</v>
+      <c r="O115" s="11">
+        <v>712643</v>
       </c>
       <c r="P115" s="11" t="s">
         <v>29</v>
       </c>
       <c r="Q115" s="11">
-        <v>7207834</v>
+        <v>7920477</v>
       </c>
       <c r="R115" s="11">
         <v>1030</v>
@@ -8289,12 +8286,12 @@
         <v>971</v>
       </c>
       <c r="T115" s="12">
-        <v>101.4</v>
+        <v>101.5</v>
       </c>
     </row>
     <row r="116" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A116" s="9" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B116" s="10" t="s">
         <v>29</v>
@@ -8335,14 +8332,14 @@
       <c r="N116" s="11">
         <v>4611060</v>
       </c>
-      <c r="O116" s="11" t="s">
-        <v>29</v>
+      <c r="O116" s="11">
+        <v>4348955</v>
       </c>
       <c r="P116" s="11" t="s">
         <v>29</v>
       </c>
       <c r="Q116" s="11">
-        <v>46453981</v>
+        <v>50802936</v>
       </c>
       <c r="R116" s="11">
         <v>6875</v>
@@ -8351,18 +8348,18 @@
         <v>6556</v>
       </c>
       <c r="T116" s="12">
-        <v>96.8</v>
+        <v>96.4</v>
       </c>
     </row>
     <row r="117" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A117" s="9" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B117" s="10">
         <v>6152</v>
       </c>
       <c r="C117" s="9" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D117" s="9">
         <v>1</v>
@@ -8397,14 +8394,14 @@
       <c r="N117" s="11">
         <v>847406</v>
       </c>
-      <c r="O117" s="11" t="s">
-        <v>29</v>
+      <c r="O117" s="11">
+        <v>686974</v>
       </c>
       <c r="P117" s="11" t="s">
         <v>29</v>
       </c>
       <c r="Q117" s="11">
-        <v>6970552</v>
+        <v>7657526</v>
       </c>
       <c r="R117" s="11">
         <v>1221</v>
@@ -8418,13 +8415,13 @@
     </row>
     <row r="118" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A118" s="9" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B118" s="10">
         <v>6152</v>
       </c>
       <c r="C118" s="9" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D118" s="9">
         <v>2</v>
@@ -8459,14 +8456,14 @@
       <c r="N118" s="11">
         <v>841502</v>
       </c>
-      <c r="O118" s="11" t="s">
-        <v>29</v>
+      <c r="O118" s="11">
+        <v>827571</v>
       </c>
       <c r="P118" s="11" t="s">
         <v>29</v>
       </c>
       <c r="Q118" s="11">
-        <v>7910061</v>
+        <v>8737632</v>
       </c>
       <c r="R118" s="11">
         <v>1221</v>
@@ -8475,18 +8472,18 @@
         <v>1126</v>
       </c>
       <c r="T118" s="12">
-        <v>96</v>
+        <v>96.5</v>
       </c>
     </row>
     <row r="119" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A119" s="9" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B119" s="10">
         <v>7722</v>
       </c>
       <c r="C119" s="9" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D119" s="9">
         <v>1</v>
@@ -8521,14 +8518,14 @@
       <c r="N119" s="11">
         <v>845849</v>
       </c>
-      <c r="O119" s="11" t="s">
-        <v>29</v>
+      <c r="O119" s="11">
+        <v>834657</v>
       </c>
       <c r="P119" s="11" t="s">
         <v>29</v>
       </c>
       <c r="Q119" s="11">
-        <v>7738062</v>
+        <v>8572719</v>
       </c>
       <c r="R119" s="11">
         <v>1270</v>
@@ -8537,18 +8534,18 @@
         <v>1123</v>
       </c>
       <c r="T119" s="12">
-        <v>94.1</v>
+        <v>94.9</v>
       </c>
     </row>
     <row r="120" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A120" s="9" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B120" s="10">
         <v>7722</v>
       </c>
       <c r="C120" s="9" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D120" s="9">
         <v>2</v>
@@ -8583,14 +8580,14 @@
       <c r="N120" s="11">
         <v>576398</v>
       </c>
-      <c r="O120" s="11" t="s">
-        <v>29</v>
+      <c r="O120" s="11">
+        <v>829578</v>
       </c>
       <c r="P120" s="11" t="s">
         <v>29</v>
       </c>
       <c r="Q120" s="11">
-        <v>1169085</v>
+        <v>1998663</v>
       </c>
       <c r="R120" s="11">
         <v>1270</v>
@@ -8599,12 +8596,12 @@
         <v>1122</v>
       </c>
       <c r="T120" s="12">
-        <v>14.2</v>
+        <v>22.2</v>
       </c>
     </row>
     <row r="121" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A121" s="9" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B121" s="10" t="s">
         <v>29</v>
@@ -8645,14 +8642,14 @@
       <c r="N121" s="11">
         <v>3111155</v>
       </c>
-      <c r="O121" s="11" t="s">
-        <v>29</v>
+      <c r="O121" s="11">
+        <v>3178780</v>
       </c>
       <c r="P121" s="11" t="s">
         <v>29</v>
       </c>
       <c r="Q121" s="11">
-        <v>23787760</v>
+        <v>26966540</v>
       </c>
       <c r="R121" s="11">
         <v>4981</v>
@@ -8661,18 +8658,18 @@
         <v>4523</v>
       </c>
       <c r="T121" s="12">
-        <v>71.900000000000006</v>
+        <v>74.2</v>
       </c>
     </row>
     <row r="122" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A122" s="9" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B122" s="10">
         <v>6145</v>
       </c>
       <c r="C122" s="9" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D122" s="9">
         <v>1</v>
@@ -8707,14 +8704,14 @@
       <c r="N122" s="11">
         <v>906385</v>
       </c>
-      <c r="O122" s="11" t="s">
-        <v>29</v>
+      <c r="O122" s="11">
+        <v>879868</v>
       </c>
       <c r="P122" s="11" t="s">
         <v>29</v>
       </c>
       <c r="Q122" s="11">
-        <v>7986612</v>
+        <v>8866480</v>
       </c>
       <c r="R122" s="11">
         <v>1215</v>
@@ -8723,18 +8720,18 @@
         <v>1205</v>
       </c>
       <c r="T122" s="12">
-        <v>90.5</v>
+        <v>91.5</v>
       </c>
     </row>
     <row r="123" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A123" s="9" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B123" s="10">
         <v>6145</v>
       </c>
       <c r="C123" s="9" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D123" s="9">
         <v>2</v>
@@ -8769,14 +8766,14 @@
       <c r="N123" s="11">
         <v>896101</v>
       </c>
-      <c r="O123" s="11" t="s">
-        <v>29</v>
+      <c r="O123" s="11">
+        <v>872561</v>
       </c>
       <c r="P123" s="11" t="s">
         <v>29</v>
       </c>
       <c r="Q123" s="11">
-        <v>8828420</v>
+        <v>9700981</v>
       </c>
       <c r="R123" s="11">
         <v>1215</v>
@@ -8785,18 +8782,18 @@
         <v>1195</v>
       </c>
       <c r="T123" s="12">
-        <v>100.9</v>
+        <v>101</v>
       </c>
     </row>
     <row r="124" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A124" s="9" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B124" s="10">
         <v>6251</v>
       </c>
       <c r="C124" s="9" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D124" s="9">
         <v>1</v>
@@ -8831,14 +8828,14 @@
       <c r="N124" s="11">
         <v>969628</v>
       </c>
-      <c r="O124" s="11" t="s">
-        <v>29</v>
+      <c r="O124" s="11">
+        <v>950904</v>
       </c>
       <c r="P124" s="11" t="s">
         <v>29</v>
       </c>
       <c r="Q124" s="11">
-        <v>9313952</v>
+        <v>10264856</v>
       </c>
       <c r="R124" s="11">
         <v>1354</v>
@@ -8847,18 +8844,18 @@
         <v>1280</v>
       </c>
       <c r="T124" s="12">
-        <v>99.4</v>
+        <v>99.7</v>
       </c>
     </row>
     <row r="125" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A125" s="9" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B125" s="10">
         <v>6251</v>
       </c>
       <c r="C125" s="9" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D125" s="9">
         <v>2</v>
@@ -8893,14 +8890,14 @@
       <c r="N125" s="11">
         <v>229699</v>
       </c>
-      <c r="O125" s="11" t="s">
-        <v>29</v>
+      <c r="O125" s="11">
+        <v>600239</v>
       </c>
       <c r="P125" s="11" t="s">
         <v>29</v>
       </c>
       <c r="Q125" s="11">
-        <v>8844761</v>
+        <v>9445000</v>
       </c>
       <c r="R125" s="11">
         <v>1354</v>
@@ -8909,12 +8906,12 @@
         <v>1280</v>
       </c>
       <c r="T125" s="12">
-        <v>94.4</v>
+        <v>91.8</v>
       </c>
     </row>
     <row r="126" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A126" s="9" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B126" s="10" t="s">
         <v>29</v>
@@ -8955,14 +8952,14 @@
       <c r="N126" s="11">
         <v>3001813</v>
       </c>
-      <c r="O126" s="11" t="s">
-        <v>29</v>
+      <c r="O126" s="11">
+        <v>3303572</v>
       </c>
       <c r="P126" s="11" t="s">
         <v>29</v>
       </c>
       <c r="Q126" s="11">
-        <v>34973745</v>
+        <v>38277317</v>
       </c>
       <c r="R126" s="11">
         <v>5139</v>
@@ -8971,18 +8968,18 @@
         <v>4960</v>
       </c>
       <c r="T126" s="12">
-        <v>96.3</v>
+        <v>96</v>
       </c>
     </row>
     <row r="127" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A127" s="9" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B127" s="10">
         <v>3806</v>
       </c>
       <c r="C127" s="9" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D127" s="9">
         <v>1</v>
@@ -9017,14 +9014,14 @@
       <c r="N127" s="11">
         <v>429088</v>
       </c>
-      <c r="O127" s="11" t="s">
-        <v>29</v>
+      <c r="O127" s="11">
+        <v>395463</v>
       </c>
       <c r="P127" s="11" t="s">
         <v>29</v>
       </c>
       <c r="Q127" s="11">
-        <v>6087017</v>
+        <v>6482480</v>
       </c>
       <c r="R127" s="11">
         <v>848</v>
@@ -9033,18 +9030,18 @@
         <v>838</v>
       </c>
       <c r="T127" s="12">
-        <v>99.2</v>
+        <v>96.2</v>
       </c>
     </row>
     <row r="128" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A128" s="9" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B128" s="10">
         <v>3806</v>
       </c>
       <c r="C128" s="9" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D128" s="9">
         <v>2</v>
@@ -9079,14 +9076,14 @@
       <c r="N128" s="11">
         <v>557497</v>
       </c>
-      <c r="O128" s="11" t="s">
-        <v>29</v>
+      <c r="O128" s="11">
+        <v>630273</v>
       </c>
       <c r="P128" s="11" t="s">
         <v>29</v>
       </c>
       <c r="Q128" s="11">
-        <v>6216090</v>
+        <v>6846363</v>
       </c>
       <c r="R128" s="11">
         <v>848</v>
@@ -9095,18 +9092,18 @@
         <v>838</v>
       </c>
       <c r="T128" s="12">
-        <v>101.3</v>
+        <v>101.6</v>
       </c>
     </row>
     <row r="129" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A129" s="9" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B129" s="10">
         <v>6168</v>
       </c>
       <c r="C129" s="9" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D129" s="9">
         <v>1</v>
@@ -9141,14 +9138,14 @@
       <c r="N129" s="11">
         <v>314321</v>
       </c>
-      <c r="O129" s="11" t="s">
-        <v>29</v>
+      <c r="O129" s="11">
+        <v>705857</v>
       </c>
       <c r="P129" s="11" t="s">
         <v>29</v>
       </c>
       <c r="Q129" s="11">
-        <v>6196585</v>
+        <v>6902442</v>
       </c>
       <c r="R129" s="11">
         <v>980</v>
@@ -9157,18 +9154,18 @@
         <v>948</v>
       </c>
       <c r="T129" s="12">
-        <v>89.3</v>
+        <v>90.6</v>
       </c>
     </row>
     <row r="130" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A130" s="9" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B130" s="10">
         <v>6168</v>
       </c>
       <c r="C130" s="9" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D130" s="9">
         <v>2</v>
@@ -9203,14 +9200,14 @@
       <c r="N130" s="11">
         <v>723008</v>
       </c>
-      <c r="O130" s="11" t="s">
-        <v>29</v>
+      <c r="O130" s="11">
+        <v>705031</v>
       </c>
       <c r="P130" s="11" t="s">
         <v>29</v>
       </c>
       <c r="Q130" s="11">
-        <v>6059727</v>
+        <v>6764758</v>
       </c>
       <c r="R130" s="11">
         <v>980</v>
@@ -9219,12 +9216,12 @@
         <v>944</v>
       </c>
       <c r="T130" s="12">
-        <v>87.7</v>
+        <v>89.1</v>
       </c>
     </row>
     <row r="131" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A131" s="9" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B131" s="10" t="s">
         <v>29</v>
@@ -9265,14 +9262,14 @@
       <c r="N131" s="11">
         <v>2023914</v>
       </c>
-      <c r="O131" s="11" t="s">
-        <v>29</v>
+      <c r="O131" s="11">
+        <v>2436624</v>
       </c>
       <c r="P131" s="11" t="s">
         <v>29</v>
       </c>
       <c r="Q131" s="11">
-        <v>24559419</v>
+        <v>26996043</v>
       </c>
       <c r="R131" s="11">
         <v>3654</v>
@@ -9281,18 +9278,18 @@
         <v>3568</v>
       </c>
       <c r="T131" s="12">
-        <v>94</v>
+        <v>94.1</v>
       </c>
     </row>
     <row r="132" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A132" s="9" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B132" s="10">
         <v>371</v>
       </c>
       <c r="C132" s="9" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D132" s="9">
         <v>2</v>
@@ -9327,14 +9324,14 @@
       <c r="N132" s="11">
         <v>841002</v>
       </c>
-      <c r="O132" s="11" t="s">
-        <v>29</v>
+      <c r="O132" s="11">
+        <v>819180</v>
       </c>
       <c r="P132" s="11" t="s">
         <v>29</v>
       </c>
       <c r="Q132" s="11">
-        <v>8153861</v>
+        <v>8973041</v>
       </c>
       <c r="R132" s="11">
         <v>1200</v>
@@ -9343,12 +9340,12 @@
         <v>1158</v>
       </c>
       <c r="T132" s="12">
-        <v>96.2</v>
+        <v>96.4</v>
       </c>
     </row>
     <row r="133" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A133" s="9" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B133" s="10" t="s">
         <v>29</v>
@@ -9389,14 +9386,14 @@
       <c r="N133" s="11">
         <v>841002</v>
       </c>
-      <c r="O133" s="11" t="s">
-        <v>29</v>
+      <c r="O133" s="11">
+        <v>819180</v>
       </c>
       <c r="P133" s="11" t="s">
         <v>29</v>
       </c>
       <c r="Q133" s="11">
-        <v>8153861</v>
+        <v>8973041</v>
       </c>
       <c r="R133" s="11">
         <v>1200</v>
@@ -9405,18 +9402,18 @@
         <v>1158</v>
       </c>
       <c r="T133" s="12">
-        <v>96.2</v>
+        <v>96.4</v>
       </c>
     </row>
     <row r="134" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A134" s="9" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B134" s="10">
         <v>4046</v>
       </c>
       <c r="C134" s="9" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D134" s="9">
         <v>1</v>
@@ -9451,14 +9448,14 @@
       <c r="N134" s="11">
         <v>443963</v>
       </c>
-      <c r="O134" s="11" t="s">
-        <v>29</v>
+      <c r="O134" s="11">
+        <v>433630</v>
       </c>
       <c r="P134" s="11" t="s">
         <v>29</v>
       </c>
       <c r="Q134" s="11">
-        <v>3987635</v>
+        <v>4421265</v>
       </c>
       <c r="R134" s="11">
         <v>643</v>
@@ -9467,18 +9464,18 @@
         <v>598</v>
       </c>
       <c r="T134" s="12">
-        <v>91.1</v>
+        <v>91.9</v>
       </c>
     </row>
     <row r="135" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A135" s="9" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B135" s="10">
         <v>4046</v>
       </c>
       <c r="C135" s="9" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D135" s="9">
         <v>2</v>
@@ -9513,14 +9510,14 @@
       <c r="N135" s="11">
         <v>447638</v>
       </c>
-      <c r="O135" s="11" t="s">
-        <v>29</v>
+      <c r="O135" s="11">
+        <v>435500</v>
       </c>
       <c r="P135" s="11" t="s">
         <v>29</v>
       </c>
       <c r="Q135" s="11">
-        <v>4397900</v>
+        <v>4833400</v>
       </c>
       <c r="R135" s="11">
         <v>643</v>
@@ -9534,7 +9531,7 @@
     </row>
     <row r="136" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A136" s="9" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B136" s="10" t="s">
         <v>29</v>
@@ -9575,14 +9572,14 @@
       <c r="N136" s="11">
         <v>891601</v>
       </c>
-      <c r="O136" s="11" t="s">
-        <v>29</v>
+      <c r="O136" s="11">
+        <v>869130</v>
       </c>
       <c r="P136" s="11" t="s">
         <v>29</v>
       </c>
       <c r="Q136" s="11">
-        <v>8385535</v>
+        <v>9254665</v>
       </c>
       <c r="R136" s="11">
         <v>1286</v>
@@ -9591,12 +9588,12 @@
         <v>1196</v>
       </c>
       <c r="T136" s="12">
-        <v>95.8</v>
+        <v>96.2</v>
       </c>
     </row>
     <row r="137" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A137" s="9" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B137" s="10" t="s">
         <v>29</v>
@@ -9637,14 +9634,14 @@
       <c r="N137" s="11">
         <v>60733343</v>
       </c>
-      <c r="O137" s="11" t="s">
-        <v>29</v>
+      <c r="O137" s="11">
+        <v>65178776</v>
       </c>
       <c r="P137" s="11" t="s">
         <v>29</v>
       </c>
       <c r="Q137" s="11">
-        <v>668453707</v>
+        <v>733632483</v>
       </c>
       <c r="R137" s="11">
         <v>104628</v>
